--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.93573131095187</v>
+        <v>2.786831</v>
       </c>
       <c r="H2">
-        <v>1.93573131095187</v>
+        <v>8.360493</v>
       </c>
       <c r="I2">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="J2">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.19085849081739</v>
+        <v>3.853017333333334</v>
       </c>
       <c r="N2">
-        <v>3.19085849081739</v>
+        <v>11.559052</v>
       </c>
       <c r="O2">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012836</v>
       </c>
       <c r="P2">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012838</v>
       </c>
       <c r="Q2">
-        <v>6.176644689491851</v>
+        <v>10.73770814807067</v>
       </c>
       <c r="R2">
-        <v>6.176644689491851</v>
+        <v>96.63937333263601</v>
       </c>
       <c r="S2">
-        <v>0.005824207663635722</v>
+        <v>0.007922161634606835</v>
       </c>
       <c r="T2">
-        <v>0.005824207663635722</v>
+        <v>0.007922161634606836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.93573131095187</v>
+        <v>2.786831</v>
       </c>
       <c r="H3">
-        <v>1.93573131095187</v>
+        <v>8.360493</v>
       </c>
       <c r="I3">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="J3">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.40499174086462</v>
+        <v>2.521954666666666</v>
       </c>
       <c r="N3">
-        <v>2.40499174086462</v>
+        <v>7.565863999999999</v>
       </c>
       <c r="O3">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737598</v>
       </c>
       <c r="P3">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737599</v>
       </c>
       <c r="Q3">
-        <v>4.655417815372291</v>
+        <v>7.028261445661332</v>
       </c>
       <c r="R3">
-        <v>4.655417815372291</v>
+        <v>63.25435301095199</v>
       </c>
       <c r="S3">
-        <v>0.004389781423536641</v>
+        <v>0.005185373118267223</v>
       </c>
       <c r="T3">
-        <v>0.004389781423536641</v>
+        <v>0.005185373118267225</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.93573131095187</v>
+        <v>2.786831</v>
       </c>
       <c r="H4">
-        <v>1.93573131095187</v>
+        <v>8.360493</v>
       </c>
       <c r="I4">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="J4">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.8970094874847</v>
+        <v>17.84381733333333</v>
       </c>
       <c r="N4">
-        <v>16.8970094874847</v>
+        <v>53.53145199999999</v>
       </c>
       <c r="O4">
-        <v>0.2949990376989778</v>
+        <v>0.2988227050865691</v>
       </c>
       <c r="P4">
-        <v>0.2949990376989778</v>
+        <v>0.2988227050865692</v>
       </c>
       <c r="Q4">
-        <v>32.70807032637494</v>
+        <v>49.72770330287066</v>
       </c>
       <c r="R4">
-        <v>32.70807032637494</v>
+        <v>447.5493297258359</v>
       </c>
       <c r="S4">
-        <v>0.0308417601196486</v>
+        <v>0.03668854636861199</v>
       </c>
       <c r="T4">
-        <v>0.0308417601196486</v>
+        <v>0.036688546368612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.93573131095187</v>
+        <v>2.786831</v>
       </c>
       <c r="H5">
-        <v>1.93573131095187</v>
+        <v>8.360493</v>
       </c>
       <c r="I5">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="J5">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.3410422329119</v>
+        <v>23.64775066666667</v>
       </c>
       <c r="N5">
-        <v>23.3410422329119</v>
+        <v>70.943252</v>
       </c>
       <c r="O5">
-        <v>0.4075031740202451</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="P5">
-        <v>0.4075031740202451</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="Q5">
-        <v>45.18198628049751</v>
+        <v>65.90228463813733</v>
       </c>
       <c r="R5">
-        <v>45.18198628049751</v>
+        <v>593.120561743236</v>
       </c>
       <c r="S5">
-        <v>0.04260391911499232</v>
+        <v>0.04862197256562602</v>
       </c>
       <c r="T5">
-        <v>0.04260391911499232</v>
+        <v>0.04862197256562602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.93573131095187</v>
+        <v>2.786831</v>
       </c>
       <c r="H6">
-        <v>1.93573131095187</v>
+        <v>8.360493</v>
       </c>
       <c r="I6">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="J6">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.4479510400673</v>
+        <v>10.697805</v>
       </c>
       <c r="N6">
-        <v>10.4479510400673</v>
+        <v>32.093415</v>
       </c>
       <c r="O6">
-        <v>0.182407159386918</v>
+        <v>0.1791515217215829</v>
       </c>
       <c r="P6">
-        <v>0.182407159386918</v>
+        <v>0.1791515217215829</v>
       </c>
       <c r="Q6">
-        <v>20.22442596355043</v>
+        <v>29.812974605955</v>
       </c>
       <c r="R6">
-        <v>20.22442596355043</v>
+        <v>268.316771453595</v>
       </c>
       <c r="S6">
-        <v>0.0190704278149492</v>
+        <v>0.02199568105035911</v>
       </c>
       <c r="T6">
-        <v>0.0190704278149492</v>
+        <v>0.02199568105035911</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.93573131095187</v>
+        <v>2.786831</v>
       </c>
       <c r="H7">
-        <v>1.93573131095187</v>
+        <v>8.360493</v>
       </c>
       <c r="I7">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="J7">
-        <v>0.1045486804303412</v>
+        <v>0.1227769702371957</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.996332114094014</v>
+        <v>1.149381666666667</v>
       </c>
       <c r="N7">
-        <v>0.996332114094014</v>
+        <v>3.448145</v>
       </c>
       <c r="O7">
-        <v>0.01739461737912979</v>
+        <v>0.01924819854374075</v>
       </c>
       <c r="P7">
-        <v>0.01739461737912979</v>
+        <v>0.01924819854374075</v>
       </c>
       <c r="Q7">
-        <v>1.928631269358654</v>
+        <v>3.203132459498333</v>
       </c>
       <c r="R7">
-        <v>1.928631269358654</v>
+        <v>28.828192135485</v>
       </c>
       <c r="S7">
-        <v>0.001818584293578699</v>
+        <v>0.002363235499724491</v>
       </c>
       <c r="T7">
-        <v>0.001818584293578699</v>
+        <v>0.002363235499724492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.5793881815568</v>
+        <v>2.556772666666667</v>
       </c>
       <c r="H8">
-        <v>16.5793881815568</v>
+        <v>7.670318</v>
       </c>
       <c r="I8">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="J8">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.19085849081739</v>
+        <v>3.853017333333334</v>
       </c>
       <c r="N8">
-        <v>3.19085849081739</v>
+        <v>11.559052</v>
       </c>
       <c r="O8">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012836</v>
       </c>
       <c r="P8">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012838</v>
       </c>
       <c r="Q8">
-        <v>52.902481551678</v>
+        <v>9.851289402059557</v>
       </c>
       <c r="R8">
-        <v>52.902481551678</v>
+        <v>88.661604618536</v>
       </c>
       <c r="S8">
-        <v>0.04988388582604043</v>
+        <v>0.007268171743560365</v>
       </c>
       <c r="T8">
-        <v>0.04988388582604043</v>
+        <v>0.007268171743560366</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.5793881815568</v>
+        <v>2.556772666666667</v>
       </c>
       <c r="H9">
-        <v>16.5793881815568</v>
+        <v>7.670318</v>
       </c>
       <c r="I9">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="J9">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.40499174086462</v>
+        <v>2.521954666666666</v>
       </c>
       <c r="N9">
-        <v>2.40499174086462</v>
+        <v>7.565863999999999</v>
       </c>
       <c r="O9">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737598</v>
       </c>
       <c r="P9">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737599</v>
       </c>
       <c r="Q9">
-        <v>39.8732916452326</v>
+        <v>6.448064758305778</v>
       </c>
       <c r="R9">
-        <v>39.8732916452326</v>
+        <v>58.032582824752</v>
       </c>
       <c r="S9">
-        <v>0.03759813660151648</v>
+        <v>0.004757310455945745</v>
       </c>
       <c r="T9">
-        <v>0.03759813660151648</v>
+        <v>0.004757310455945746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.5793881815568</v>
+        <v>2.556772666666667</v>
       </c>
       <c r="H10">
-        <v>16.5793881815568</v>
+        <v>7.670318</v>
       </c>
       <c r="I10">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="J10">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.8970094874847</v>
+        <v>17.84381733333333</v>
       </c>
       <c r="N10">
-        <v>16.8970094874847</v>
+        <v>53.53145199999999</v>
       </c>
       <c r="O10">
-        <v>0.2949990376989778</v>
+        <v>0.2988227050865691</v>
       </c>
       <c r="P10">
-        <v>0.2949990376989778</v>
+        <v>0.2988227050865692</v>
       </c>
       <c r="Q10">
-        <v>280.142079400457</v>
+        <v>45.62258442685955</v>
       </c>
       <c r="R10">
-        <v>280.142079400457</v>
+        <v>410.603259841736</v>
       </c>
       <c r="S10">
-        <v>0.2641572775793292</v>
+        <v>0.03365983532370629</v>
       </c>
       <c r="T10">
-        <v>0.2641572775793292</v>
+        <v>0.0336598353237063</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.5793881815568</v>
+        <v>2.556772666666667</v>
       </c>
       <c r="H11">
-        <v>16.5793881815568</v>
+        <v>7.670318</v>
       </c>
       <c r="I11">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="J11">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.3410422329119</v>
+        <v>23.64775066666667</v>
       </c>
       <c r="N11">
-        <v>23.3410422329119</v>
+        <v>70.943252</v>
       </c>
       <c r="O11">
-        <v>0.4075031740202451</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="P11">
-        <v>0.4075031740202451</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="Q11">
-        <v>386.9801997415577</v>
+        <v>60.46192253268178</v>
       </c>
       <c r="R11">
-        <v>386.9801997415577</v>
+        <v>544.1573027941361</v>
       </c>
       <c r="S11">
-        <v>0.3648992549052528</v>
+        <v>0.04460813391813467</v>
       </c>
       <c r="T11">
-        <v>0.3648992549052528</v>
+        <v>0.04460813391813467</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.5793881815568</v>
+        <v>2.556772666666667</v>
       </c>
       <c r="H12">
-        <v>16.5793881815568</v>
+        <v>7.670318</v>
       </c>
       <c r="I12">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="J12">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.4479510400673</v>
+        <v>10.697805</v>
       </c>
       <c r="N12">
-        <v>10.4479510400673</v>
+        <v>32.093415</v>
       </c>
       <c r="O12">
-        <v>0.182407159386918</v>
+        <v>0.1791515217215829</v>
       </c>
       <c r="P12">
-        <v>0.182407159386918</v>
+        <v>0.1791515217215829</v>
       </c>
       <c r="Q12">
-        <v>173.2206359951759</v>
+        <v>27.35185541733</v>
       </c>
       <c r="R12">
-        <v>173.2206359951759</v>
+        <v>246.16669875597</v>
       </c>
       <c r="S12">
-        <v>0.1633367315719688</v>
+        <v>0.02017989468836686</v>
       </c>
       <c r="T12">
-        <v>0.1633367315719688</v>
+        <v>0.02017989468836686</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.5793881815568</v>
+        <v>2.556772666666667</v>
       </c>
       <c r="H13">
-        <v>16.5793881815568</v>
+        <v>7.670318</v>
       </c>
       <c r="I13">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="J13">
-        <v>0.8954513195696588</v>
+        <v>0.1126414919306584</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.996332114094014</v>
+        <v>1.149381666666667</v>
       </c>
       <c r="N13">
-        <v>0.996332114094014</v>
+        <v>3.448145</v>
       </c>
       <c r="O13">
-        <v>0.01739461737912979</v>
+        <v>0.01924819854374075</v>
       </c>
       <c r="P13">
-        <v>0.01739461737912979</v>
+        <v>0.01924819854374075</v>
       </c>
       <c r="Q13">
-        <v>16.5185768773158</v>
+        <v>2.938707628901112</v>
       </c>
       <c r="R13">
-        <v>16.5185768773158</v>
+        <v>26.44836866011</v>
       </c>
       <c r="S13">
-        <v>0.01557603308555109</v>
+        <v>0.002168145800944485</v>
       </c>
       <c r="T13">
-        <v>0.01557603308555109</v>
+        <v>0.002168145800944485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>17.35471666666666</v>
+      </c>
+      <c r="H14">
+        <v>52.06415</v>
+      </c>
+      <c r="I14">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="J14">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.853017333333334</v>
+      </c>
+      <c r="N14">
+        <v>11.559052</v>
+      </c>
+      <c r="O14">
+        <v>0.06452481780012836</v>
+      </c>
+      <c r="P14">
+        <v>0.06452481780012838</v>
+      </c>
+      <c r="Q14">
+        <v>66.86802413175556</v>
+      </c>
+      <c r="R14">
+        <v>601.8122171858</v>
+      </c>
+      <c r="S14">
+        <v>0.04933448442196117</v>
+      </c>
+      <c r="T14">
+        <v>0.04933448442196118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>17.35471666666666</v>
+      </c>
+      <c r="H15">
+        <v>52.06415</v>
+      </c>
+      <c r="I15">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="J15">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.521954666666666</v>
+      </c>
+      <c r="N15">
+        <v>7.565863999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.04223408598737598</v>
+      </c>
+      <c r="P15">
+        <v>0.04223408598737599</v>
+      </c>
+      <c r="Q15">
+        <v>43.76780868617777</v>
+      </c>
+      <c r="R15">
+        <v>393.9102781756</v>
+      </c>
+      <c r="S15">
+        <v>0.03229140241316301</v>
+      </c>
+      <c r="T15">
+        <v>0.03229140241316302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>17.35471666666666</v>
+      </c>
+      <c r="H16">
+        <v>52.06415</v>
+      </c>
+      <c r="I16">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="J16">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.84381733333333</v>
+      </c>
+      <c r="N16">
+        <v>53.53145199999999</v>
+      </c>
+      <c r="O16">
+        <v>0.2988227050865691</v>
+      </c>
+      <c r="P16">
+        <v>0.2988227050865692</v>
+      </c>
+      <c r="Q16">
+        <v>309.6743940717554</v>
+      </c>
+      <c r="R16">
+        <v>2787.0695466458</v>
+      </c>
+      <c r="S16">
+        <v>0.2284743233942508</v>
+      </c>
+      <c r="T16">
+        <v>0.2284743233942509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.35471666666666</v>
+      </c>
+      <c r="H17">
+        <v>52.06415</v>
+      </c>
+      <c r="I17">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="J17">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>23.64775066666667</v>
+      </c>
+      <c r="N17">
+        <v>70.943252</v>
+      </c>
+      <c r="O17">
+        <v>0.3960186708606028</v>
+      </c>
+      <c r="P17">
+        <v>0.3960186708606028</v>
+      </c>
+      <c r="Q17">
+        <v>410.4000126239777</v>
+      </c>
+      <c r="R17">
+        <v>3693.6001136158</v>
+      </c>
+      <c r="S17">
+        <v>0.3027885643768421</v>
+      </c>
+      <c r="T17">
+        <v>0.3027885643768422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>17.35471666666666</v>
+      </c>
+      <c r="H18">
+        <v>52.06415</v>
+      </c>
+      <c r="I18">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="J18">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.697805</v>
+      </c>
+      <c r="N18">
+        <v>32.093415</v>
+      </c>
+      <c r="O18">
+        <v>0.1791515217215829</v>
+      </c>
+      <c r="P18">
+        <v>0.1791515217215829</v>
+      </c>
+      <c r="Q18">
+        <v>185.65737473025</v>
+      </c>
+      <c r="R18">
+        <v>1670.91637257225</v>
+      </c>
+      <c r="S18">
+        <v>0.136975945982857</v>
+      </c>
+      <c r="T18">
+        <v>0.136975945982857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>17.35471666666666</v>
+      </c>
+      <c r="H19">
+        <v>52.06415</v>
+      </c>
+      <c r="I19">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="J19">
+        <v>0.7645815378321459</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.149381666666667</v>
+      </c>
+      <c r="N19">
+        <v>3.448145</v>
+      </c>
+      <c r="O19">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="P19">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="Q19">
+        <v>19.94719316686111</v>
+      </c>
+      <c r="R19">
+        <v>179.52473850175</v>
+      </c>
+      <c r="S19">
+        <v>0.01471681724307177</v>
+      </c>
+      <c r="T19">
+        <v>0.01471681724307178</v>
       </c>
     </row>
   </sheetData>
